--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1120711.545321087</v>
+        <v>1118230.625495628</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673424</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838811</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D11" t="n">
-        <v>206.8228747049377</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G11" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104935</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830085</v>
+        <v>66.21115331871498</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y11" t="n">
         <v>359.3177920689271</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
         <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>86.26051497487943</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>38.65401422786383</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271161</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292086</v>
+        <v>62.01200608292085</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443154</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>306.0137170554127</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>102.4908736515838</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579947</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
         <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>300.8321118830084</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>125.752918077376</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>139.1056616719017</v>
@@ -1783,7 +1783,7 @@
         <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>25.5668812554659</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292083</v>
+        <v>62.01200608292085</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443154</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>192.6288026890427</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D17" t="n">
         <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359924</v>
@@ -1859,7 +1859,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>183.4961803409497</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>64.76025162138086</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290878</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D19" t="n">
-        <v>74.7201898124933</v>
+        <v>137.1198840074562</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085012</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F19" t="n">
-        <v>133.9254590121761</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330917</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860173</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411904</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432828</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>267.1640487096479</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>254.1613077246359</v>
       </c>
       <c r="D20" t="n">
         <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
         <v>332.9807625359924</v>
@@ -2096,7 +2096,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>295.83581747275</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290878</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D22" t="n">
-        <v>74.7201898124933</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085012</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721219</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330917</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860173</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411904</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432828</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V22" t="n">
-        <v>240.6420543130727</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833181</v>
+        <v>214.2140663782811</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245675</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339011</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762182</v>
       </c>
       <c r="C25" t="n">
-        <v>155.7512320878722</v>
+        <v>155.7512320878728</v>
       </c>
       <c r="D25" t="n">
-        <v>74.7201898124933</v>
+        <v>74.72018981249329</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085012</v>
+        <v>72.5386794408501</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721219</v>
+        <v>71.52576481721218</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330917</v>
+        <v>92.13052505330916</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860173</v>
+        <v>70.85973170860171</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432829</v>
+        <v>15.03686946432826</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257228</v>
@@ -2558,16 +2558,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,22 +2713,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
         <v>49.37728379124552</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598758</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572781</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3029,19 +3029,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007077</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383222</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010728</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482617</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092315</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H37" t="n">
-        <v>47.0702946862157</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333682</v>
+        <v>134.2912433677308</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>196.6598613601176</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383233</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3715,19 +3715,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>230.7340562419014</v>
+        <v>239.4866237999587</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007078</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
         <v>230.0675382420299</v>
@@ -3806,7 +3806,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383223</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052277</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D43" t="n">
-        <v>93.1376910545018</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3916,7 +3916,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333685</v>
+        <v>92.08430510333692</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>197.9921611783842</v>
       </c>
       <c r="W43" t="n">
         <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007078</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
         <v>230.0675382420299</v>
@@ -4040,10 +4040,10 @@
         <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503635</v>
+        <v>272.0463804503634</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383223</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052277</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010729</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846411</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092316</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621572</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>42.20693826439413</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4189,19 +4189,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>230.7340562419023</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1747.464966528009</v>
+        <v>1781.421951016571</v>
       </c>
       <c r="C11" t="n">
-        <v>1405.69451684732</v>
+        <v>1439.651501335883</v>
       </c>
       <c r="D11" t="n">
-        <v>1196.782522195868</v>
+        <v>1108.577869988856</v>
       </c>
       <c r="E11" t="n">
-        <v>838.1863368573471</v>
+        <v>1108.577869988856</v>
       </c>
       <c r="F11" t="n">
-        <v>454.3924993274632</v>
+        <v>724.7840324589722</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>336.9036495636925</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5042,13 +5042,13 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="U11" t="n">
-        <v>3099.267412142731</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="V11" t="n">
-        <v>2795.396592058884</v>
+        <v>3175.627267548804</v>
       </c>
       <c r="W11" t="n">
-        <v>2469.820004048494</v>
+        <v>2850.050679538414</v>
       </c>
       <c r="X11" t="n">
-        <v>2469.820004048494</v>
+        <v>2503.776988537057</v>
       </c>
       <c r="Y11" t="n">
-        <v>2106.872739332407</v>
+        <v>2140.829723820969</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
         <v>2096.912393410638</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>418.3126375609371</v>
+        <v>418.3126375609377</v>
       </c>
       <c r="C13" t="n">
-        <v>418.3126375609371</v>
+        <v>276.5685218927545</v>
       </c>
       <c r="D13" t="n">
-        <v>295.3880654083251</v>
+        <v>153.6439497401424</v>
       </c>
       <c r="E13" t="n">
-        <v>295.3880654083251</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>175.6901851701384</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>136.6457263541143</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541143</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5200,10 +5200,10 @@
         <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402572</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5215,7 +5215,7 @@
         <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784765</v>
       </c>
       <c r="Q13" t="n">
         <v>2140.502109058534</v>
@@ -5230,19 +5230,19 @@
         <v>1718.795353991586</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.884554376953</v>
+        <v>1456.884554376954</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.39213343079</v>
+        <v>1229.392133430791</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1670306535531</v>
+        <v>967.1670306535536</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3695470152594</v>
+        <v>766.3695470152601</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7690351314531</v>
+        <v>572.7690351314536</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2140.018136355091</v>
+        <v>1568.679286171952</v>
       </c>
       <c r="C14" t="n">
-        <v>1798.247686674403</v>
+        <v>1226.908836491264</v>
       </c>
       <c r="D14" t="n">
-        <v>1467.174055327377</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.577869988856</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7840324589722</v>
+        <v>739.5888639597797</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9036495636925</v>
+        <v>351.7084810644999</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>81.31694793299096</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3146.820141253115</v>
       </c>
       <c r="U14" t="n">
-        <v>3099.267412142732</v>
+        <v>2920.481731786675</v>
       </c>
       <c r="V14" t="n">
-        <v>2795.396592058884</v>
+        <v>2616.610911702828</v>
       </c>
       <c r="W14" t="n">
-        <v>2795.396592058884</v>
+        <v>2291.034323692438</v>
       </c>
       <c r="X14" t="n">
-        <v>2449.122901057528</v>
+        <v>2291.034323692438</v>
       </c>
       <c r="Y14" t="n">
-        <v>2449.122901057528</v>
+        <v>1928.08705897635</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>572.7690351314527</v>
+        <v>737.2628520449024</v>
       </c>
       <c r="C16" t="n">
-        <v>445.7458855583459</v>
+        <v>595.5187363767192</v>
       </c>
       <c r="D16" t="n">
-        <v>445.7458855583459</v>
+        <v>472.5941642241071</v>
       </c>
       <c r="E16" t="n">
-        <v>445.7458855583459</v>
+        <v>351.8731379014379</v>
       </c>
       <c r="F16" t="n">
-        <v>326.0480053201593</v>
+        <v>351.8731379014379</v>
       </c>
       <c r="G16" t="n">
-        <v>185.5372359546019</v>
+        <v>211.3623685358806</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>92.33724901346208</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
         <v>138.2856940003742</v>
@@ -5440,7 +5440,7 @@
         <v>368.9238220705058</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402573</v>
+        <v>712.1345656402565</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,37 +5449,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784765</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075786</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162336</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991586</v>
+        <v>1883.289170905035</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376953</v>
+        <v>1621.378371290402</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.39213343079</v>
+        <v>1393.885950344239</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535527</v>
+        <v>1131.660847567002</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3695470152591</v>
+        <v>930.8633639287087</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7690351314527</v>
+        <v>737.2628520449024</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1817.728115595286</v>
+        <v>1632.378438483216</v>
       </c>
       <c r="C17" t="n">
-        <v>1523.407298862671</v>
+        <v>1338.057621750601</v>
       </c>
       <c r="D17" t="n">
-        <v>1239.783300463718</v>
+        <v>1054.433623351648</v>
       </c>
       <c r="E17" t="n">
-        <v>928.6367480732708</v>
+        <v>743.2870709612006</v>
       </c>
       <c r="F17" t="n">
-        <v>592.2925434914603</v>
+        <v>406.94286637939</v>
       </c>
       <c r="G17" t="n">
-        <v>251.8617935442538</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417716</v>
+        <v>3093.20641035893</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281942</v>
+        <v>2836.785223223156</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219626</v>
+        <v>2558.658268160839</v>
       </c>
       <c r="X17" t="n">
-        <v>2445.183887219626</v>
+        <v>2259.834210107556</v>
       </c>
       <c r="Y17" t="n">
-        <v>2129.686255451611</v>
+        <v>1944.336578339541</v>
       </c>
     </row>
     <row r="18">
@@ -5583,16 +5583,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1517731235555</v>
+        <v>632.1517731235549</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034456</v>
+        <v>537.8572904034449</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989069</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E19" t="n">
-        <v>389.1109578243108</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604106</v>
+        <v>89.19609340604111</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5710,13 +5710,13 @@
         <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371952</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817312</v>
+        <v>885.3094166817307</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459982</v>
+        <v>739.1585377459976</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1560.999521934037</v>
+        <v>1817.728115595286</v>
       </c>
       <c r="C20" t="n">
         <v>1560.999521934037</v>
@@ -5735,13 +5735,13 @@
         <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446364</v>
+        <v>966.2289711446365</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628257</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5750,10 +5750,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5777,10 +5777,10 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
         <v>2979.732029417716</v>
@@ -5792,10 +5792,10 @@
         <v>2445.183887219625</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.359829166342</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.862197398328</v>
+        <v>2129.686255451611</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872283</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671184</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625797</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879836</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604106</v>
+        <v>89.19609340604113</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5944,16 +5944,16 @@
         <v>1433.475525199205</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064788</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356243</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>822.279422545404</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096709</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="23">
@@ -5969,70 +5969,70 @@
         <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925383</v>
+        <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349364</v>
+        <v>973.0946095349352</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531258</v>
+        <v>636.7504049531246</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713542</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
         <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391687</v>
+        <v>1580.642377391688</v>
       </c>
       <c r="N23" t="n">
         <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2630.393665329806</v>
+        <v>2630.393665329807</v>
       </c>
       <c r="P23" t="n">
-        <v>3151.392472058329</v>
+        <v>3343.748752776753</v>
       </c>
       <c r="Q23" t="n">
         <v>3609.870674567317</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124119</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859012</v>
+        <v>3633.238772859011</v>
       </c>
       <c r="T23" t="n">
         <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932665</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734574</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681291</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913276</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714071</v>
+        <v>948.409492871408</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902801</v>
+        <v>773.956463590281</v>
       </c>
       <c r="D24" t="n">
-        <v>625.022053929029</v>
+        <v>625.0220539290299</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235734</v>
+        <v>465.7845989235743</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504585</v>
+        <v>319.2500409504594</v>
       </c>
       <c r="G24" t="n">
-        <v>182.886940783077</v>
+        <v>182.8869407830778</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094446</v>
+        <v>92.3850464209448</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130997</v>
+        <v>167.0550243131</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934468</v>
+        <v>405.3192232934474</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061119</v>
+        <v>772.0173836061128</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.293708828428</v>
+        <v>1219.293708828429</v>
       </c>
       <c r="N24" t="n">
         <v>1692.816752382883</v>
@@ -6084,34 +6084,34 @@
         <v>2103.778031800938</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.27762327704</v>
+        <v>2414.277623277041</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.91918092364</v>
+        <v>2571.919180923641</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516155</v>
+        <v>2571.774827516156</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009635</v>
+        <v>2442.336941009636</v>
       </c>
       <c r="T24" t="n">
-        <v>2249.693940687491</v>
+        <v>2249.693940687492</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821906</v>
+        <v>2021.626093821907</v>
       </c>
       <c r="V24" t="n">
-        <v>1786.473985590164</v>
+        <v>1786.473985590165</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861962</v>
+        <v>1532.236628861963</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.385128656429</v>
+        <v>1324.38512865643</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891475</v>
+        <v>1116.624829891476</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.017411513854</v>
+        <v>639.0174115138544</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574174</v>
+        <v>481.6929346574173</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528787</v>
+        <v>406.2179954528785</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782826</v>
+        <v>332.9466020782825</v>
       </c>
       <c r="F25" t="n">
         <v>260.6983547881692</v>
@@ -6139,13 +6139,13 @@
         <v>167.6372183706852</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634004</v>
+        <v>96.06173179634</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5003872694179</v>
+        <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
         <v>322.4875702182943</v>
@@ -6154,7 +6154,7 @@
         <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663393</v>
+        <v>983.2044142663394</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,10 +6166,10 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478791</v>
+        <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444116</v>
+        <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
         <v>1801.92724547874</v>
@@ -6178,19 +6178,19 @@
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589503</v>
+        <v>1440.341163589504</v>
       </c>
       <c r="V25" t="n">
         <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52290576225</v>
+        <v>1045.522905762251</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720297</v>
+        <v>892.1750550720302</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362967</v>
+        <v>746.0241761362971</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668915</v>
@@ -6224,49 +6224,49 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486247</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.596005545029</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424366</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6303,13 +6303,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257035</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,16 +6382,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982168</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6400,7 +6400,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6412,13 +6412,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,10 +6449,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467792</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,31 +6461,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>792.1780824632688</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486247</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.596005545029</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424366</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
@@ -6497,7 +6497,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6540,28 +6540,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
         <v>2579.543989590362</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6622,10 +6622,10 @@
         <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6698,13 +6698,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455608</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L32" t="n">
-        <v>1468.364237198915</v>
+        <v>1771.984857554751</v>
       </c>
       <c r="M32" t="n">
         <v>2305.516762226675</v>
@@ -6716,19 +6716,19 @@
         <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521972</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863831</v>
@@ -6777,25 +6777,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6859,13 +6859,13 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307335</v>
+        <v>581.8252978307326</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6950,37 +6950,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -7005,28 +7005,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.9308303909351</v>
+        <v>500.9308303909357</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368717</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D37" t="n">
-        <v>379.2208771983795</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159864</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1668.551646658397</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.082050758175</v>
+        <v>1478.120214357884</v>
       </c>
       <c r="V37" t="n">
-        <v>1223.435726151996</v>
+        <v>1322.10716072584</v>
       </c>
       <c r="W37" t="n">
-        <v>934.0185561150353</v>
+        <v>1032.68999068888</v>
       </c>
       <c r="X37" t="n">
-        <v>804.7004397908614</v>
+        <v>903.3718743647056</v>
       </c>
       <c r="Y37" t="n">
-        <v>583.9078606473313</v>
+        <v>682.5792952211755</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464979</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7205,19 +7205,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>599.6022649647791</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C40" t="n">
-        <v>529.3375166107156</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D40" t="n">
-        <v>477.8923117722233</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E40" t="n">
-        <v>329.9792181898302</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F40" t="n">
-        <v>281.7607052657632</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1280.777345210197</v>
+        <v>1182.105910636354</v>
       </c>
       <c r="V40" t="n">
-        <v>1124.764291578153</v>
+        <v>1026.092857004311</v>
       </c>
       <c r="W40" t="n">
-        <v>934.0185561150362</v>
+        <v>835.3471215411932</v>
       </c>
       <c r="X40" t="n">
-        <v>804.7004397908622</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y40" t="n">
-        <v>682.5792952211755</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="41">
@@ -7394,61 +7394,61 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F41" t="n">
         <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
@@ -7479,22 +7479,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,10 +7506,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>839.5784050866016</v>
+        <v>696.9279421464337</v>
       </c>
       <c r="C43" t="n">
-        <v>769.3136567325382</v>
+        <v>626.6631937923702</v>
       </c>
       <c r="D43" t="n">
-        <v>675.2351809199101</v>
+        <v>575.2179889538779</v>
       </c>
       <c r="E43" t="n">
-        <v>527.322087337517</v>
+        <v>525.9763299453282</v>
       </c>
       <c r="F43" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T43" t="n">
         <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1422.082050758176</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1222.089968759808</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.994696236858</v>
+        <v>1031.344233296691</v>
       </c>
       <c r="X43" t="n">
-        <v>1044.676579912684</v>
+        <v>902.0261169725168</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.5554353429978</v>
+        <v>779.90497240283</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307326</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7716,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,10 +7743,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>500.9308303909353</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C46" t="n">
-        <v>430.6660820368718</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D46" t="n">
-        <v>379.2208771983796</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E46" t="n">
-        <v>329.97921818983</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1884.661277114357</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1692.975392941184</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1471.20877751071</v>
       </c>
       <c r="U46" t="n">
-        <v>1280.777345210196</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V46" t="n">
-        <v>1124.764291578153</v>
+        <v>1026.09285700431</v>
       </c>
       <c r="W46" t="n">
-        <v>835.347121541192</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X46" t="n">
-        <v>706.0290052170182</v>
+        <v>607.3575706431752</v>
       </c>
       <c r="Y46" t="n">
-        <v>583.9078606473315</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430631</v>
+        <v>157.235310843063</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729008</v>
+        <v>184.4039433729007</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389604</v>
+        <v>191.4948909389603</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333068</v>
+        <v>181.0856325333066</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830241</v>
+        <v>179.355374883024</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383991</v>
+        <v>182.8301554383989</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586585</v>
+        <v>190.8908035586584</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266124</v>
+        <v>192.0103836266123</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,25 +8532,25 @@
         <v>112.6562001875974</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372533</v>
+        <v>113.6031223372532</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672274</v>
+        <v>105.9629718672273</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253593</v>
+        <v>104.1013981253592</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677658</v>
+        <v>92.30246558677645</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359736</v>
+        <v>106.8829608359735</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798324</v>
+        <v>105.3113487798323</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615458</v>
+        <v>120.8212784615457</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564658</v>
+        <v>116.1755252564657</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085228</v>
+        <v>119.1996074085227</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140778</v>
+        <v>108.4284123140777</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530925</v>
+        <v>120.6694600530924</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662705</v>
+        <v>122.5080856662704</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>127.4994347185299</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>18.01571720695134</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>277.2206841544146</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>190.2350110279876</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>277.2206841544146</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>231.1066821161361</v>
       </c>
       <c r="M32" t="n">
-        <v>306.687495308925</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>-4.405364961712621e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>120.9400203286188</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579947</v>
+        <v>14.65678318579943</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104934</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>234.6209585642934</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>33.25330108456325</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358047</v>
       </c>
       <c r="G13" t="n">
-        <v>100.4516474440379</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
         <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271159</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>49.79997802094145</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>225.2720213819726</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579944</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104932</v>
+        <v>82.26761520104935</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,16 +23653,16 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>14.57375643412539</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358047</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271161</v>
+        <v>43.86539256724571</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>37.21630084065171</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>112.3396371318021</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>295.83581747275</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>41.67450974811364</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>37.21630084065267</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>4.121147867408581e-13</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>6.963318810448982e-13</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>832321.4363533314</v>
+        <v>832321.4363533311</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>905436.1092375879</v>
+        <v>905436.1092375878</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>935260.9264325531</v>
+        <v>935260.926432553</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>935260.926432553</v>
+        <v>935260.9264325529</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>512047.711698149</v>
       </c>
       <c r="C2" t="n">
-        <v>512047.711698149</v>
+        <v>512047.7116981491</v>
       </c>
       <c r="D2" t="n">
         <v>512061.6686287166</v>
       </c>
       <c r="E2" t="n">
+        <v>455962.5005656095</v>
+      </c>
+      <c r="F2" t="n">
         <v>455962.5005656094</v>
-      </c>
-      <c r="F2" t="n">
-        <v>455962.5005656095</v>
       </c>
       <c r="G2" t="n">
         <v>496581.763279085</v>
       </c>
       <c r="H2" t="n">
-        <v>496581.7632790849</v>
+        <v>496581.763279085</v>
       </c>
       <c r="I2" t="n">
         <v>513151.1061651765</v>
       </c>
       <c r="J2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="K2" t="n">
         <v>513151.1061651766</v>
       </c>
       <c r="L2" t="n">
-        <v>513151.1061651766</v>
+        <v>513151.1061651764</v>
       </c>
       <c r="M2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651765</v>
       </c>
       <c r="N2" t="n">
         <v>513151.1061651767</v>
       </c>
       <c r="O2" t="n">
+        <v>513151.1061651765</v>
+      </c>
+      <c r="P2" t="n">
         <v>513151.1061651767</v>
-      </c>
-      <c r="P2" t="n">
-        <v>513151.106165177</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.5536755228</v>
+        <v>59764.55367552298</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163632</v>
@@ -26378,22 +26378,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487399</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983346</v>
+        <v>22821.46782983366</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179689</v>
+        <v>25409.43302179695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487399</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.958078640513122e-11</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>426120.6833475039</v>
+        <v>426120.6833475038</v>
       </c>
       <c r="E4" t="n">
-        <v>39414.21797863748</v>
+        <v>39414.21797863751</v>
       </c>
       <c r="F4" t="n">
-        <v>39414.21797863748</v>
+        <v>39414.21797863751</v>
       </c>
       <c r="G4" t="n">
-        <v>76442.37834007971</v>
+        <v>76442.37834007965</v>
       </c>
       <c r="H4" t="n">
-        <v>76442.37834007971</v>
+        <v>76442.37834007965</v>
       </c>
       <c r="I4" t="n">
-        <v>89331.3356060285</v>
+        <v>89331.33560602849</v>
       </c>
       <c r="J4" t="n">
-        <v>86909.55729936338</v>
+        <v>86909.55729936334</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.5572993634</v>
+        <v>86909.55729936331</v>
       </c>
       <c r="L4" t="n">
-        <v>86909.55729936338</v>
+        <v>86909.55729936331</v>
       </c>
       <c r="M4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="N4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="O4" t="n">
-        <v>91573.95495316951</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="P4" t="n">
-        <v>91573.95495316949</v>
+        <v>91573.95495316939</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>35148.90543186636</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.49036482644</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.49036482642</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
         <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31395.49142575611</v>
+        <v>31391.07784788806</v>
       </c>
       <c r="C6" t="n">
-        <v>31395.49142575617</v>
+        <v>31391.07784788811</v>
       </c>
       <c r="D6" t="n">
-        <v>-8972.473826176494</v>
+        <v>-8976.831576322395</v>
       </c>
       <c r="E6" t="n">
-        <v>-749260.1799414865</v>
+        <v>-749488.9343638847</v>
       </c>
       <c r="F6" t="n">
-        <v>339978.7922221456</v>
+        <v>339750.0377997472</v>
       </c>
       <c r="G6" t="n">
-        <v>302040.6325189163</v>
+        <v>301974.3551473721</v>
       </c>
       <c r="H6" t="n">
-        <v>339620.7418137903</v>
+        <v>339554.4644422461</v>
       </c>
       <c r="I6" t="n">
-        <v>315261.7744274725</v>
+        <v>315261.7744274723</v>
       </c>
       <c r="J6" t="n">
-        <v>311454.1741692103</v>
+        <v>311454.1741692105</v>
       </c>
       <c r="K6" t="n">
-        <v>336863.6071910071</v>
+        <v>336863.6071910072</v>
       </c>
       <c r="L6" t="n">
         <v>299283.497896133</v>
       </c>
       <c r="M6" t="n">
-        <v>136890.4539130333</v>
+        <v>136890.453913033</v>
       </c>
       <c r="N6" t="n">
         <v>339058.5539057576</v>
       </c>
       <c r="O6" t="n">
-        <v>339058.5539057573</v>
+        <v>339058.5539057571</v>
       </c>
       <c r="P6" t="n">
-        <v>339058.5539057577</v>
+        <v>339058.5539057574</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790644</v>
+        <v>69.78465283790665</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26799,16 +26799,16 @@
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810299</v>
+        <v>917.2219352810298</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="O4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951249</v>
+        <v>50.70958360951241</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790644</v>
+        <v>69.78465283790665</v>
       </c>
       <c r="E3" t="n">
         <v>1019.992047755392</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873705</v>
+        <v>85.82047987873693</v>
       </c>
       <c r="J4" t="n">
-        <v>97.1145259275844</v>
+        <v>97.11452592758462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959709</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434005</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
         <v>199.6603204104727</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780175</v>
+        <v>132.2465643780174</v>
       </c>
       <c r="S8" t="n">
         <v>202.6272343036572</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672106</v>
+        <v>84.22861846672104</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987517</v>
+        <v>90.83829126987514</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28032,10 +28032,10 @@
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519083</v>
+        <v>84.4622088851908</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990328</v>
+        <v>7.649035050990284</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317052</v>
+        <v>75.62456067317048</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437878</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712649</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571905</v>
+        <v>11.49558901075611</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F19" t="n">
-        <v>11.49558901075511</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V22" t="n">
-        <v>11.49558901075528</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571905</v>
+        <v>11.49558901075602</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C25" t="n">
-        <v>11.49558901075559</v>
+        <v>11.49558901075505</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859222</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,25 +30189,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810508</v>
+        <v>55.47778196371112</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V37" t="n">
-        <v>55.47778196371041</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -30435,19 +30435,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>55.47778196371152</v>
+        <v>46.72521440565419</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="42">
@@ -30615,19 +30615,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D43" t="n">
-        <v>55.47778196371056</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -30636,7 +30636,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810506</v>
+        <v>54.14548214544379</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>46.7252144056532</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -30909,19 +30909,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>55.47778196371061</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413322</v>
+        <v>0.280541317941333</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366669</v>
+        <v>2.873093772366678</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993322</v>
+        <v>10.81556915993325</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362316</v>
+        <v>23.81059368362324</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207976</v>
+        <v>35.68590767207987</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102681</v>
+        <v>44.27152403102695</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396598</v>
+        <v>49.26060069396613</v>
       </c>
       <c r="N8" t="n">
-        <v>50.0576887135668</v>
+        <v>50.05768871356695</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328767</v>
+        <v>47.26805598328782</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661102</v>
+        <v>40.34219219661115</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783706</v>
+        <v>30.29530624783715</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313223</v>
+        <v>17.62255356313228</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588114</v>
+        <v>6.392835282588133</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288182</v>
+        <v>1.228069619288186</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530657</v>
+        <v>0.02244330543530664</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796478</v>
+        <v>0.1501028381796483</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840283</v>
+        <v>1.449677410840287</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694015</v>
+        <v>5.168014384694031</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906927</v>
+        <v>14.18142647906931</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710567</v>
+        <v>24.23831663710575</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264678</v>
+        <v>32.59140791264688</v>
       </c>
       <c r="M9" t="n">
-        <v>38.032635796659</v>
+        <v>38.03263579665912</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655674</v>
+        <v>39.03924649655686</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847085</v>
+        <v>35.71328360847096</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449784</v>
+        <v>28.66305863449793</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447575</v>
+        <v>19.1604956244758</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767962</v>
+        <v>9.31954288276799</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608807</v>
+        <v>2.788094384608816</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890188</v>
+        <v>0.6050197731890207</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345254</v>
+        <v>0.009875186722345285</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486837</v>
+        <v>0.1258411772486841</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811025</v>
+        <v>1.118842466811029</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078599</v>
+        <v>3.784387403078611</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481938</v>
+        <v>8.896971231481967</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489252</v>
+        <v>14.62045677489257</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477249</v>
+        <v>18.70915102477255</v>
       </c>
       <c r="M10" t="n">
-        <v>19.7261765390823</v>
+        <v>19.72617653908236</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115541</v>
+        <v>19.25713215115546</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875032</v>
+        <v>17.78707839875037</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287716</v>
+        <v>15.21991838287721</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852387</v>
+        <v>10.5374825785239</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381723</v>
+        <v>5.658276933381741</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233878</v>
+        <v>2.193068516233885</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625576</v>
+        <v>0.5376850300625592</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564574</v>
+        <v>0.006864064213564595</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019271</v>
+        <v>72.49856320019272</v>
       </c>
       <c r="K13" t="n">
         <v>232.9678061314461</v>
@@ -35580,13 +35580,13 @@
         <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097663</v>
       </c>
       <c r="P13" t="n">
         <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250201</v>
+        <v>105.3143851250202</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019273</v>
+        <v>72.49856320019272</v>
       </c>
       <c r="K16" t="n">
         <v>232.9678061314461</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573247</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M16" t="n">
         <v>374.5535259806103</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>526.2614209379016</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>268.8100220106708</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737863</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>527.4262975833881</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>675.9826703737863</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>686.6967965084683</v>
       </c>
       <c r="M32" t="n">
-        <v>845.6086111391515</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,10 +37233,10 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120761</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597746</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302267</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
